--- a/Parte 3/Esercizio 1/dati.xlsx
+++ b/Parte 3/Esercizio 1/dati.xlsx
@@ -24,18 +24,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>Y = mX + q</t>
+  </si>
+  <si>
+    <t>X^2</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>indice</t>
+  </si>
+  <si>
+    <t>somma</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Y^2</t>
+  </si>
+  <si>
+    <t>r²</t>
+  </si>
+  <si>
+    <t>termine noto</t>
+  </si>
+  <si>
+    <t>coefficiente angolare</t>
+  </si>
+  <si>
+    <t>coefficiente di correlazione</t>
+  </si>
+  <si>
+    <t>coefficiente di determinazione</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -61,12 +109,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -189,7 +323,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>Retta di regressione</c:name>
+            <c:name>Regressione lineare automatica</c:name>
             <c:spPr>
               <a:ln w="12700" cap="rnd">
                 <a:solidFill>
@@ -1100,16 +1234,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1394,82 +1528,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L4"/>
+  <dimension ref="B2:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>17</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>18</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>12</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>16</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>18</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>17</v>
       </c>
+      <c r="N3" s="2">
+        <f>SUM(C3:L3)</f>
+        <v>160</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>22</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>16</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>20</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <v>18</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N7" si="0">SUM(C4:L4)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:L6" si="1">C3^2</f>
+        <v>225</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C4^2</f>
+        <v>256</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:L7" si="2">D4^2</f>
+        <v>196</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2">
+        <f>SUM(C7:L7)</f>
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <f>C3*C4</f>
+        <v>240</v>
+      </c>
+      <c r="D9" s="1">
+        <f>D3*D4</f>
+        <v>182</v>
+      </c>
+      <c r="E9" s="1">
+        <f>E3*E4</f>
+        <v>306</v>
+      </c>
+      <c r="F9" s="1">
+        <f>F3*F4</f>
+        <v>210</v>
+      </c>
+      <c r="G9" s="1">
+        <f>G3*G4</f>
+        <v>342</v>
+      </c>
+      <c r="H9" s="1">
+        <f>H3*H4</f>
+        <v>168</v>
+      </c>
+      <c r="I9" s="1">
+        <f>I3*I4</f>
+        <v>440</v>
+      </c>
+      <c r="J9" s="1">
+        <f>J3*J4</f>
+        <v>256</v>
+      </c>
+      <c r="K9" s="1">
+        <f>K3*K4</f>
+        <v>360</v>
+      </c>
+      <c r="L9" s="1">
+        <f>L3*L4</f>
+        <v>306</v>
+      </c>
+      <c r="N9" s="2">
+        <f>SUM(C9:L9)</f>
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <f>COUNT(C3:L3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="8">
+        <f>(N4*N6-N3*N9)/(C11*N6-N3^2)</f>
+        <v>0.62857142857142856</v>
+      </c>
+      <c r="P17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="8">
+        <f>(C11*N9-N3*N4)/(C11*N6-N3^2)</f>
+        <v>1.0357142857142858</v>
+      </c>
+      <c r="P18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="8">
+        <f>(C11*N9-N3*N4)/(SQRT((C11*N6-N3^2)*(C11*N7-N4^2)))</f>
+        <v>0.97186383673888532</v>
+      </c>
+      <c r="P20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="8">
+        <f>O20^2</f>
+        <v>0.94451931716082671</v>
+      </c>
+      <c r="P21" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
